--- a/eCert/Uploads/Nhac-cu-dan-toc.xlsx
+++ b/eCert/Uploads/Nhac-cu-dan-toc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PhucTri\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0F67D9-E6E4-4C0A-8BA8-EAB59877C910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746E3245-D9F4-4751-AA66-C5234FAA4647}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>No</t>
   </si>
@@ -57,9 +57,6 @@
     <t>AvgMark</t>
   </si>
   <si>
-    <t>Hà Phúc Trí</t>
-  </si>
-  <si>
     <t>23/09/1999</t>
   </si>
   <si>
@@ -81,18 +78,12 @@
     <t>Đàn tranh</t>
   </si>
   <si>
-    <t>Hoàng Việt Bách</t>
-  </si>
-  <si>
     <t>Nam</t>
   </si>
   <si>
     <t>Mông</t>
   </si>
   <si>
-    <t>Nguyễn Ngọc Hải</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mường </t>
   </si>
   <si>
@@ -117,25 +108,25 @@
     <t>23/07/1999</t>
   </si>
   <si>
-    <t>Đàn bầu</t>
-  </si>
-  <si>
     <t>Sáo</t>
   </si>
   <si>
-    <t>HE130585</t>
+    <t>ĐTR101</t>
+  </si>
+  <si>
+    <t>ĐH200304</t>
+  </si>
+  <si>
+    <t>HE130576</t>
   </si>
   <si>
     <t>Phạm Thanh Hà</t>
   </si>
   <si>
-    <t>ĐTR101</t>
-  </si>
-  <si>
-    <t>Đàn bà</t>
-  </si>
-  <si>
-    <t>ĐH200304</t>
+    <t>Lừa trái tim đàn bà</t>
+  </si>
+  <si>
+    <t>Tình một đêm</t>
   </si>
 </sst>
 </file>
@@ -455,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -505,10 +496,10 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -516,37 +507,37 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
       </c>
       <c r="J2">
         <v>8.1</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -554,37 +545,37 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
       <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
       </c>
       <c r="J3">
         <v>7.5</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -592,37 +583,37 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
       </c>
       <c r="J4">
         <v>8</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -630,37 +621,37 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>14</v>
       </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J5">
         <v>9</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/eCert/Uploads/Nhac-cu-dan-toc.xlsx
+++ b/eCert/Uploads/Nhac-cu-dan-toc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PhucTri\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746E3245-D9F4-4751-AA66-C5234FAA4647}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD8AEFE-86D7-400D-A54A-0BA98CEC77FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>No</t>
   </si>
@@ -111,9 +111,6 @@
     <t>Sáo</t>
   </si>
   <si>
-    <t>ĐTR101</t>
-  </si>
-  <si>
     <t>ĐH200304</t>
   </si>
   <si>
@@ -123,10 +120,19 @@
     <t>Phạm Thanh Hà</t>
   </si>
   <si>
-    <t>Lừa trái tim đàn bà</t>
-  </si>
-  <si>
-    <t>Tình một đêm</t>
+    <t xml:space="preserve">Vovinam 1 </t>
+  </si>
+  <si>
+    <t>Vovinam 2</t>
+  </si>
+  <si>
+    <t>VOV101</t>
+  </si>
+  <si>
+    <t>VOV102</t>
+  </si>
+  <si>
+    <t>SAO100</t>
   </si>
 </sst>
 </file>
@@ -446,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,10 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -545,10 +551,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
         <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -566,13 +572,13 @@
         <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="J3">
         <v>7.5</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
         <v>23</v>
@@ -583,10 +589,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
         <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -604,13 +610,13 @@
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="J4">
         <v>8</v>
       </c>
       <c r="K4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -621,10 +627,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
         <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -642,16 +648,16 @@
         <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="J5">
         <v>9</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/eCert/Uploads/Nhac-cu-dan-toc.xlsx
+++ b/eCert/Uploads/Nhac-cu-dan-toc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PhucTri\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD8AEFE-86D7-400D-A54A-0BA98CEC77FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746E3245-D9F4-4751-AA66-C5234FAA4647}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>No</t>
   </si>
@@ -111,6 +111,9 @@
     <t>Sáo</t>
   </si>
   <si>
+    <t>ĐTR101</t>
+  </si>
+  <si>
     <t>ĐH200304</t>
   </si>
   <si>
@@ -120,19 +123,10 @@
     <t>Phạm Thanh Hà</t>
   </si>
   <si>
-    <t xml:space="preserve">Vovinam 1 </t>
-  </si>
-  <si>
-    <t>Vovinam 2</t>
-  </si>
-  <si>
-    <t>VOV101</t>
-  </si>
-  <si>
-    <t>VOV102</t>
-  </si>
-  <si>
-    <t>SAO100</t>
+    <t>Lừa trái tim đàn bà</t>
+  </si>
+  <si>
+    <t>Tình một đêm</t>
   </si>
 </sst>
 </file>
@@ -452,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -513,10 +507,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -551,10 +545,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -572,13 +566,13 @@
         <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="J3">
         <v>7.5</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L3" t="s">
         <v>23</v>
@@ -589,10 +583,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -610,13 +604,13 @@
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="J4">
         <v>8</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -627,10 +621,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -648,16 +642,16 @@
         <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="J5">
         <v>9</v>
       </c>
       <c r="K5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/eCert/Uploads/Nhac-cu-dan-toc.xlsx
+++ b/eCert/Uploads/Nhac-cu-dan-toc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PhucTri\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746E3245-D9F4-4751-AA66-C5234FAA4647}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E801CD33-7A8C-41C2-A748-7D74519D41DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="121">
   <si>
     <t>No</t>
   </si>
@@ -123,17 +123,278 @@
     <t>Phạm Thanh Hà</t>
   </si>
   <si>
-    <t>Lừa trái tim đàn bà</t>
-  </si>
-  <si>
-    <t>Tình một đêm</t>
+    <t>HE130577</t>
+  </si>
+  <si>
+    <t>HE130578</t>
+  </si>
+  <si>
+    <t>HE130579</t>
+  </si>
+  <si>
+    <t>HE130580</t>
+  </si>
+  <si>
+    <t>HE130581</t>
+  </si>
+  <si>
+    <t>HE130582</t>
+  </si>
+  <si>
+    <t>HE130583</t>
+  </si>
+  <si>
+    <t>HE130584</t>
+  </si>
+  <si>
+    <t>HE130585</t>
+  </si>
+  <si>
+    <t>HE130586</t>
+  </si>
+  <si>
+    <t>HE130587</t>
+  </si>
+  <si>
+    <t>HE130588</t>
+  </si>
+  <si>
+    <t>HE130589</t>
+  </si>
+  <si>
+    <t>HE130590</t>
+  </si>
+  <si>
+    <t>HE130591</t>
+  </si>
+  <si>
+    <t>HE130592</t>
+  </si>
+  <si>
+    <t>HE130593</t>
+  </si>
+  <si>
+    <t>HE130594</t>
+  </si>
+  <si>
+    <t>HE130595</t>
+  </si>
+  <si>
+    <t>HE130596</t>
+  </si>
+  <si>
+    <t>HE130597</t>
+  </si>
+  <si>
+    <t>HE130598</t>
+  </si>
+  <si>
+    <t>HE130599</t>
+  </si>
+  <si>
+    <t>HE130600</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Hải</t>
+  </si>
+  <si>
+    <t>Hà Phúc Trí</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Tuấn</t>
+  </si>
+  <si>
+    <t>Hoàng Việt Bách</t>
+  </si>
+  <si>
+    <t>ÐBA101</t>
+  </si>
+  <si>
+    <t>ÐNG101</t>
+  </si>
+  <si>
+    <t>ÐNH101</t>
+  </si>
+  <si>
+    <t>Đàn Nhị</t>
+  </si>
+  <si>
+    <t>ÐNH102</t>
+  </si>
+  <si>
+    <t>Đàn bầu</t>
+  </si>
+  <si>
+    <t>Đàn Bầu</t>
+  </si>
+  <si>
+    <t>Đàn Nguyệt</t>
+  </si>
+  <si>
+    <t>ĐH200305</t>
+  </si>
+  <si>
+    <t>ĐH200306</t>
+  </si>
+  <si>
+    <t>ĐH200307</t>
+  </si>
+  <si>
+    <t>ĐH200308</t>
+  </si>
+  <si>
+    <t>ĐH200309</t>
+  </si>
+  <si>
+    <t>ĐH200310</t>
+  </si>
+  <si>
+    <t>ĐH200311</t>
+  </si>
+  <si>
+    <t>ĐH200312</t>
+  </si>
+  <si>
+    <t>ĐH200313</t>
+  </si>
+  <si>
+    <t>ĐH200314</t>
+  </si>
+  <si>
+    <t>ĐH200315</t>
+  </si>
+  <si>
+    <t>ĐH200316</t>
+  </si>
+  <si>
+    <t>ĐH200317</t>
+  </si>
+  <si>
+    <t>ĐH200318</t>
+  </si>
+  <si>
+    <t>ĐH200319</t>
+  </si>
+  <si>
+    <t>ĐH200320</t>
+  </si>
+  <si>
+    <t>ĐH200321</t>
+  </si>
+  <si>
+    <t>ĐH200322</t>
+  </si>
+  <si>
+    <t>ĐH200323</t>
+  </si>
+  <si>
+    <t>ĐH200324</t>
+  </si>
+  <si>
+    <t>ĐH200325</t>
+  </si>
+  <si>
+    <t>ĐH200326</t>
+  </si>
+  <si>
+    <t>TRG101</t>
+  </si>
+  <si>
+    <t>Trống</t>
+  </si>
+  <si>
+    <t>TRG102</t>
+  </si>
+  <si>
+    <t>Traditional musical instrument</t>
+  </si>
+  <si>
+    <t>ÐBA102</t>
+  </si>
+  <si>
+    <t>ÐNG102</t>
+  </si>
+  <si>
+    <t>ÐSA101</t>
+  </si>
+  <si>
+    <t>ÐSA102</t>
+  </si>
+  <si>
+    <t>Sáo trúc</t>
+  </si>
+  <si>
+    <t>ÐTB102</t>
+  </si>
+  <si>
+    <t>Đặng Tuấn Anh</t>
+  </si>
+  <si>
+    <t>Hoàng Đức Anh</t>
+  </si>
+  <si>
+    <t>Lưu Trang Anh</t>
+  </si>
+  <si>
+    <t>Phạm Thị Hiền Anh</t>
+  </si>
+  <si>
+    <t>Phạm Khắc Việt Anh</t>
+  </si>
+  <si>
+    <t>Phạm Hoàng Anh</t>
+  </si>
+  <si>
+    <t>Đỗ Hoàng Gia Bảo</t>
+  </si>
+  <si>
+    <t>Trần Thị Minh Châu</t>
+  </si>
+  <si>
+    <t>Tăng Phương Chi</t>
+  </si>
+  <si>
+    <t>Gan Feng Du</t>
+  </si>
+  <si>
+    <t>Phạm Tiến Dũng</t>
+  </si>
+  <si>
+    <t>Nguyễn Thái Dương</t>
+  </si>
+  <si>
+    <t>Trần An Dương</t>
+  </si>
+  <si>
+    <t>Mạc Trung Đức</t>
+  </si>
+  <si>
+    <t>Vũ Hương Giang</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ngân Hà</t>
+  </si>
+  <si>
+    <t>Nguyễn Lê Hiếu</t>
+  </si>
+  <si>
+    <t>Phạm Xuân Hòa</t>
+  </si>
+  <si>
+    <t>Khoa Minh Hoàng</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Hiệp Hoàng</t>
+  </si>
+  <si>
+    <t>Nguyễn Mạnh Hùng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,16 +402,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -158,15 +447,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -444,217 +759,1055 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" customWidth="1"/>
-    <col min="8" max="8" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="36.33203125" customWidth="1"/>
-    <col min="12" max="12" width="33.44140625" customWidth="1"/>
+    <col min="11" max="11" width="36.28515625" customWidth="1"/>
+    <col min="12" max="12" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="5">
+        <v>36396</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J2">
+      <c r="J4" s="1">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="1">
+        <v>9</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="5">
+        <v>36415</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="1">
         <v>8.1</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="1">
+        <v>8</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="5">
+        <v>36347</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="1">
+        <v>9</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="5">
+        <v>36373</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="1">
+        <v>8</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="1">
+        <v>9</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="5">
+        <v>36417</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16" s="1">
+        <v>8</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="L2" t="s">
+      <c r="B17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" s="1">
+        <v>9</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J18" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="5">
+        <v>36387</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J19" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J20" s="1">
+        <v>8</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J21" s="1">
+        <v>9</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="5">
+        <v>36425</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="1">
+        <v>9</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="5">
+        <v>36369</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="1">
+        <v>8</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" s="1">
+        <v>9</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="5">
+        <v>36172</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3">
-        <v>7.5</v>
-      </c>
-      <c r="K3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="G26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="E4" t="s">
+      <c r="B27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4">
-        <v>8</v>
-      </c>
-      <c r="K4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="F27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5">
+      <c r="G27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J27" s="1">
         <v>9</v>
       </c>
-      <c r="K5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" t="s">
-        <v>29</v>
+      <c r="K27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/eCert/Uploads/Nhac-cu-dan-toc.xlsx
+++ b/eCert/Uploads/Nhac-cu-dan-toc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PhucTri\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ha\OneDrive\Desktop\New folder (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746E3245-D9F4-4751-AA66-C5234FAA4647}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248DDAE2-35D9-4AB6-95E2-324862AA4C4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-96" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>No</t>
   </si>
@@ -127,6 +127,18 @@
   </si>
   <si>
     <t>Tình một đêm</t>
+  </si>
+  <si>
+    <t>26/09/1999</t>
+  </si>
+  <si>
+    <t>ABC101</t>
+  </si>
+  <si>
+    <t>Học</t>
+  </si>
+  <si>
+    <t>ĐH200305</t>
   </si>
 </sst>
 </file>
@@ -166,7 +178,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -444,27 +456,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" customWidth="1"/>
-    <col min="8" max="8" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="36.33203125" customWidth="1"/>
-    <col min="12" max="12" width="33.44140625" customWidth="1"/>
+    <col min="11" max="11" width="36.28515625" customWidth="1"/>
+    <col min="12" max="12" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -502,7 +514,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -540,7 +552,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -578,7 +590,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -616,7 +628,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -652,6 +664,44 @@
       </c>
       <c r="L5" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/eCert/Uploads/Nhac-cu-dan-toc.xlsx
+++ b/eCert/Uploads/Nhac-cu-dan-toc.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PhucTri\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BachHV\Desktop\New folder (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746E3245-D9F4-4751-AA66-C5234FAA4647}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>No</t>
   </si>
@@ -127,12 +126,15 @@
   </si>
   <si>
     <t>Tình một đêm</t>
+  </si>
+  <si>
+    <t>Bach Hoang</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -166,7 +168,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -443,28 +445,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" customWidth="1"/>
-    <col min="8" max="8" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="36.33203125" customWidth="1"/>
-    <col min="12" max="12" width="33.44140625" customWidth="1"/>
+    <col min="11" max="11" width="36.28515625" customWidth="1"/>
+    <col min="12" max="12" width="33.42578125" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -501,8 +504,11 @@
       <c r="L1" t="s">
         <v>21</v>
       </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -539,8 +545,11 @@
       <c r="L2" t="s">
         <v>22</v>
       </c>
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -577,8 +586,11 @@
       <c r="L3" t="s">
         <v>23</v>
       </c>
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -615,8 +627,11 @@
       <c r="L4" t="s">
         <v>24</v>
       </c>
+      <c r="M4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -652,6 +667,9 @@
       </c>
       <c r="L5" t="s">
         <v>29</v>
+      </c>
+      <c r="M5" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/eCert/Uploads/Nhac-cu-dan-toc.xlsx
+++ b/eCert/Uploads/Nhac-cu-dan-toc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ha\OneDrive\Desktop\New folder (2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ha\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248DDAE2-35D9-4AB6-95E2-324862AA4C4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D546F2-7D11-4DEC-AAA7-A54B1F6CED94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-96" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="121">
   <si>
     <t>No</t>
   </si>
@@ -120,32 +120,281 @@
     <t>HE130576</t>
   </si>
   <si>
+    <t>HE130577</t>
+  </si>
+  <si>
+    <t>HE130578</t>
+  </si>
+  <si>
+    <t>HE130579</t>
+  </si>
+  <si>
+    <t>HE130580</t>
+  </si>
+  <si>
+    <t>HE130581</t>
+  </si>
+  <si>
+    <t>HE130582</t>
+  </si>
+  <si>
+    <t>HE130583</t>
+  </si>
+  <si>
+    <t>HE130584</t>
+  </si>
+  <si>
+    <t>HE130585</t>
+  </si>
+  <si>
+    <t>HE130586</t>
+  </si>
+  <si>
+    <t>HE130587</t>
+  </si>
+  <si>
+    <t>HE130588</t>
+  </si>
+  <si>
+    <t>HE130589</t>
+  </si>
+  <si>
+    <t>HE130590</t>
+  </si>
+  <si>
+    <t>HE130591</t>
+  </si>
+  <si>
+    <t>HE130592</t>
+  </si>
+  <si>
+    <t>HE130593</t>
+  </si>
+  <si>
+    <t>HE130594</t>
+  </si>
+  <si>
+    <t>HE130595</t>
+  </si>
+  <si>
+    <t>HE130596</t>
+  </si>
+  <si>
+    <t>HE130597</t>
+  </si>
+  <si>
+    <t>HE130598</t>
+  </si>
+  <si>
+    <t>HE130599</t>
+  </si>
+  <si>
+    <t>HE130600</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Tuấn</t>
+  </si>
+  <si>
+    <t>Hoàng Việt Bách</t>
+  </si>
+  <si>
+    <t>ÐBA101</t>
+  </si>
+  <si>
+    <t>ÐNG101</t>
+  </si>
+  <si>
+    <t>ÐNH101</t>
+  </si>
+  <si>
+    <t>Đàn Nhị</t>
+  </si>
+  <si>
+    <t>ÐNH102</t>
+  </si>
+  <si>
+    <t>Đàn bầu</t>
+  </si>
+  <si>
+    <t>Đàn Bầu</t>
+  </si>
+  <si>
+    <t>Đàn Nguyệt</t>
+  </si>
+  <si>
+    <t>ĐH200305</t>
+  </si>
+  <si>
+    <t>ĐH200306</t>
+  </si>
+  <si>
+    <t>ĐH200307</t>
+  </si>
+  <si>
+    <t>ĐH200308</t>
+  </si>
+  <si>
+    <t>ĐH200309</t>
+  </si>
+  <si>
+    <t>ĐH200310</t>
+  </si>
+  <si>
+    <t>ĐH200311</t>
+  </si>
+  <si>
+    <t>ĐH200312</t>
+  </si>
+  <si>
+    <t>ĐH200313</t>
+  </si>
+  <si>
+    <t>ĐH200314</t>
+  </si>
+  <si>
+    <t>ĐH200315</t>
+  </si>
+  <si>
+    <t>ĐH200316</t>
+  </si>
+  <si>
+    <t>ĐH200317</t>
+  </si>
+  <si>
+    <t>ĐH200318</t>
+  </si>
+  <si>
+    <t>ĐH200319</t>
+  </si>
+  <si>
+    <t>ĐH200320</t>
+  </si>
+  <si>
+    <t>ĐH200321</t>
+  </si>
+  <si>
+    <t>ĐH200322</t>
+  </si>
+  <si>
+    <t>ĐH200323</t>
+  </si>
+  <si>
+    <t>ĐH200324</t>
+  </si>
+  <si>
+    <t>ĐH200325</t>
+  </si>
+  <si>
+    <t>ĐH200326</t>
+  </si>
+  <si>
+    <t>TRG101</t>
+  </si>
+  <si>
+    <t>Trống</t>
+  </si>
+  <si>
+    <t>TRG102</t>
+  </si>
+  <si>
+    <t>Traditional musical instrument</t>
+  </si>
+  <si>
+    <t>ÐBA102</t>
+  </si>
+  <si>
+    <t>ÐNG102</t>
+  </si>
+  <si>
+    <t>ÐSA101</t>
+  </si>
+  <si>
+    <t>ÐSA102</t>
+  </si>
+  <si>
+    <t>Sáo trúc</t>
+  </si>
+  <si>
+    <t>ÐTB102</t>
+  </si>
+  <si>
+    <t>Đặng Tuấn Anh</t>
+  </si>
+  <si>
+    <t>Phạm Thị Hiền Anh</t>
+  </si>
+  <si>
+    <t>Phạm Khắc Việt Anh</t>
+  </si>
+  <si>
+    <t>Phạm Hoàng Anh</t>
+  </si>
+  <si>
+    <t>Đỗ Hoàng Gia Bảo</t>
+  </si>
+  <si>
+    <t>Trần Thị Minh Châu</t>
+  </si>
+  <si>
+    <t>Tăng Phương Chi</t>
+  </si>
+  <si>
+    <t>Gan Feng Du</t>
+  </si>
+  <si>
+    <t>Phạm Tiến Dũng</t>
+  </si>
+  <si>
+    <t>Nguyễn Thái Dương</t>
+  </si>
+  <si>
+    <t>Trần An Dương</t>
+  </si>
+  <si>
+    <t>Mạc Trung Đức</t>
+  </si>
+  <si>
+    <t>Vũ Hương Giang</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ngân Hà</t>
+  </si>
+  <si>
+    <t>Nguyễn Lê Hiếu</t>
+  </si>
+  <si>
+    <t>Phạm Xuân Hòa</t>
+  </si>
+  <si>
+    <t>Khoa Minh Hoàng</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Hiệp Hoàng</t>
+  </si>
+  <si>
+    <t>Nguyễn Mạnh Hùng</t>
+  </si>
+  <si>
     <t>Phạm Thanh Hà</t>
   </si>
   <si>
-    <t>Lừa trái tim đàn bà</t>
-  </si>
-  <si>
-    <t>Tình một đêm</t>
-  </si>
-  <si>
-    <t>26/09/1999</t>
-  </si>
-  <si>
-    <t>ABC101</t>
-  </si>
-  <si>
-    <t>Học</t>
-  </si>
-  <si>
-    <t>ĐH200305</t>
+    <t>Hoàng Đức  -2</t>
+  </si>
+  <si>
+    <t>Lưu Trang Anh 5</t>
+  </si>
+  <si>
+    <t>23/09/2050</t>
+  </si>
+  <si>
+    <t>1223/8/1999</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,16 +402,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -170,12 +447,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,235 +779,1031 @@
     <col min="12" max="12" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="5">
+        <v>36396</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="1">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="1">
+        <v>9</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="5">
+        <v>36415</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="1">
+        <v>8</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="5">
+        <v>36347</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="1">
+        <v>9</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="5">
+        <v>36373</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="1">
+        <v>8</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="1">
+        <v>9</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="5">
+        <v>36417</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="J2">
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" s="1">
+        <v>8</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" s="1">
+        <v>9</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18" s="1">
         <v>8.1</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="5">
+        <v>36387</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J19" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J20" s="1">
+        <v>8</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J21" s="1">
+        <v>9</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="5">
+        <v>36425</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L22" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="1">
+        <v>9</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="5">
+        <v>36369</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="1">
+        <v>8</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" s="1">
+        <v>9</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="5">
+        <v>36172</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3">
-        <v>7.5</v>
-      </c>
-      <c r="K3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="G26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J26" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="E4" t="s">
+      <c r="B27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4">
-        <v>8</v>
-      </c>
-      <c r="K4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="F27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5">
+      <c r="G27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27" s="1">
         <v>9</v>
       </c>
-      <c r="K5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6">
-        <v>10</v>
-      </c>
-      <c r="K6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" t="s">
-        <v>37</v>
+      <c r="K27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/eCert/Uploads/Nhac-cu-dan-toc.xlsx
+++ b/eCert/Uploads/Nhac-cu-dan-toc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>No</t>
   </si>
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t>Tình một đêm</t>
-  </si>
-  <si>
-    <t>Bach Hoang</t>
   </si>
 </sst>
 </file>
@@ -446,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,7 +464,7 @@
     <col min="13" max="13" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -504,11 +501,8 @@
       <c r="L1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -545,11 +539,8 @@
       <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -586,11 +577,8 @@
       <c r="L3" t="s">
         <v>23</v>
       </c>
-      <c r="M3" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -627,11 +615,8 @@
       <c r="L4" t="s">
         <v>24</v>
       </c>
-      <c r="M4" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -667,9 +652,6 @@
       </c>
       <c r="L5" t="s">
         <v>29</v>
-      </c>
-      <c r="M5" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/eCert/Uploads/Nhac-cu-dan-toc.xlsx
+++ b/eCert/Uploads/Nhac-cu-dan-toc.xlsx
@@ -119,13 +119,13 @@
     <t>HE130576</t>
   </si>
   <si>
-    <t>Phạm Thanh Hà</t>
-  </si>
-  <si>
-    <t>Lừa trái tim đàn bà</t>
-  </si>
-  <si>
-    <t>Tình một đêm</t>
+    <t>Tình yêu như đĩa thịt gà</t>
+  </si>
+  <si>
+    <t>Hôm nay là thứ bảy</t>
+  </si>
+  <si>
+    <t>Hoàng Việt Bách</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="D9" sqref="D9:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,7 +510,7 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -548,7 +548,7 @@
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -572,7 +572,7 @@
         <v>7.5</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
         <v>23</v>
@@ -586,7 +586,7 @@
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -624,7 +624,7 @@
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>

--- a/eCert/Uploads/Nhac-cu-dan-toc.xlsx
+++ b/eCert/Uploads/Nhac-cu-dan-toc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16890"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>No</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Hoàng Việt Bách</t>
+  </si>
+  <si>
+    <t>Hoàng      Việt Bách</t>
   </si>
 </sst>
 </file>
@@ -446,25 +449,25 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="8" max="8" width="22.5546875" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="36.28515625" customWidth="1"/>
-    <col min="12" max="12" width="33.42578125" customWidth="1"/>
-    <col min="13" max="13" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" width="36.33203125" customWidth="1"/>
+    <col min="12" max="12" width="33.44140625" customWidth="1"/>
+    <col min="13" max="13" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -502,7 +505,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -510,7 +513,7 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -540,7 +543,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -578,7 +581,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -616,7 +619,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>

--- a/eCert/Uploads/Nhac-cu-dan-toc.xlsx
+++ b/eCert/Uploads/Nhac-cu-dan-toc.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BachHV\Desktop\New folder (2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ha\OneDrive\Desktop\New folder (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248DDAE2-35D9-4AB6-95E2-324862AA4C4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896"/>
+    <workbookView xWindow="-23148" yWindow="-96" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>No</t>
   </si>
@@ -119,22 +120,31 @@
     <t>HE130576</t>
   </si>
   <si>
-    <t>Tình yêu như đĩa thịt gà</t>
-  </si>
-  <si>
-    <t>Hôm nay là thứ bảy</t>
-  </si>
-  <si>
-    <t>Hoàng Việt Bách</t>
-  </si>
-  <si>
-    <t>Hoàng      Việt Bách</t>
+    <t>Phạm Thanh Hà</t>
+  </si>
+  <si>
+    <t>Lừa trái tim đàn bà</t>
+  </si>
+  <si>
+    <t>Tình một đêm</t>
+  </si>
+  <si>
+    <t>26/09/1999</t>
+  </si>
+  <si>
+    <t>ABC101</t>
+  </si>
+  <si>
+    <t>Học</t>
+  </si>
+  <si>
+    <t>ĐH200305</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -445,29 +455,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" customWidth="1"/>
-    <col min="8" max="8" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="36.33203125" customWidth="1"/>
-    <col min="12" max="12" width="33.44140625" customWidth="1"/>
-    <col min="13" max="13" width="21.44140625" customWidth="1"/>
+    <col min="11" max="11" width="36.28515625" customWidth="1"/>
+    <col min="12" max="12" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -505,7 +514,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -513,7 +522,7 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -543,7 +552,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -551,7 +560,7 @@
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -575,13 +584,13 @@
         <v>7.5</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -589,7 +598,7 @@
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -619,7 +628,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -627,7 +636,7 @@
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -655,6 +664,44 @@
       </c>
       <c r="L5" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/eCert/Uploads/Nhac-cu-dan-toc.xlsx
+++ b/eCert/Uploads/Nhac-cu-dan-toc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ha\OneDrive\Desktop\New folder (2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\New folder (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248DDAE2-35D9-4AB6-95E2-324862AA4C4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFB1166-6BB7-4269-A24D-7CCCBA84EB9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-96" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,6 @@
     <t>ÐTR101</t>
   </si>
   <si>
-    <t>Đàn tranh</t>
-  </si>
-  <si>
     <t>Nam</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t>ĐH200305</t>
+  </si>
+  <si>
+    <t>Đàn tranh 123</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
         <v>20</v>
-      </c>
-      <c r="L1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -519,10 +519,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -546,10 +546,10 @@
         <v>8.1</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -557,19 +557,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
         <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -584,10 +584,10 @@
         <v>7.5</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -595,19 +595,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -622,10 +622,10 @@
         <v>8</v>
       </c>
       <c r="K4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -633,13 +633,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -654,16 +654,16 @@
         <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J5">
         <v>9</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -671,16 +671,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -692,16 +692,16 @@
         <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J6">
         <v>10</v>
       </c>
       <c r="K6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" t="s">
         <v>36</v>
-      </c>
-      <c r="L6" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/eCert/Uploads/Nhac-cu-dan-toc.xlsx
+++ b/eCert/Uploads/Nhac-cu-dan-toc.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\New folder (2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BachHV\Desktop\New folder (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFB1166-6BB7-4269-A24D-7CCCBA84EB9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t>No</t>
   </si>
@@ -75,6 +74,9 @@
     <t>ÐTR101</t>
   </si>
   <si>
+    <t>Đàn tranh</t>
+  </si>
+  <si>
     <t>Nam</t>
   </si>
   <si>
@@ -114,37 +116,28 @@
     <t>ĐH200304</t>
   </si>
   <si>
-    <t>HE130576</t>
-  </si>
-  <si>
-    <t>Phạm Thanh Hà</t>
-  </si>
-  <si>
-    <t>Lừa trái tim đàn bà</t>
-  </si>
-  <si>
-    <t>Tình một đêm</t>
-  </si>
-  <si>
-    <t>26/09/1999</t>
-  </si>
-  <si>
-    <t>ABC101</t>
-  </si>
-  <si>
-    <t>Học</t>
+    <t>HE130585</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Hải</t>
+  </si>
+  <si>
+    <t>Vovinam 1</t>
+  </si>
+  <si>
+    <t>Vovinam 2</t>
+  </si>
+  <si>
+    <t>Vovinam 3</t>
   </si>
   <si>
     <t>ĐH200305</t>
-  </si>
-  <si>
-    <t>Đàn tranh 123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -455,11 +448,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,6 +467,7 @@
     <col min="10" max="10" width="18" customWidth="1"/>
     <col min="11" max="11" width="36.28515625" customWidth="1"/>
     <col min="12" max="12" width="33.42578125" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -508,10 +502,10 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -519,10 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -546,10 +540,10 @@
         <v>8.1</v>
       </c>
       <c r="K2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -557,19 +551,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -587,7 +581,7 @@
         <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -595,19 +589,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -622,10 +616,10 @@
         <v>8</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -633,13 +627,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -654,16 +648,16 @@
         <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J5">
         <v>9</v>
       </c>
       <c r="K5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -671,16 +665,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -692,16 +686,16 @@
         <v>14</v>
       </c>
       <c r="I6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6">
+        <v>9</v>
+      </c>
+      <c r="K6" t="s">
         <v>34</v>
       </c>
-      <c r="J6">
-        <v>10</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/eCert/Uploads/Nhac-cu-dan-toc.xlsx
+++ b/eCert/Uploads/Nhac-cu-dan-toc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
   <si>
     <t>No</t>
   </si>
@@ -132,6 +132,15 @@
   </si>
   <si>
     <t>ĐH200305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Nguyễn Ngọc    Hải</t>
+  </si>
+  <si>
+    <t>Nguyễn    Ngọc Hải</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc              Hải</t>
   </si>
 </sst>
 </file>
@@ -452,7 +461,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="D14" sqref="D13:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,7 +525,7 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -592,7 +601,7 @@
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -668,7 +677,7 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>

--- a/eCert/Uploads/Nhac-cu-dan-toc.xlsx
+++ b/eCert/Uploads/Nhac-cu-dan-toc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\New folder (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFB1166-6BB7-4269-A24D-7CCCBA84EB9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F814182-812F-4F2A-A66F-6933D22278B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
   <si>
     <t>No</t>
   </si>
@@ -139,16 +139,25 @@
   </si>
   <si>
     <t>Đàn tranh 123</t>
+  </si>
+  <si>
+    <t>HE130577</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -459,7 +468,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,7 +680,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
@@ -705,6 +714,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/eCert/Uploads/Nhac-cu-dan-toc.xlsx
+++ b/eCert/Uploads/Nhac-cu-dan-toc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
     <t>No</t>
   </si>
@@ -113,9 +113,6 @@
     <t>ĐTR101</t>
   </si>
   <si>
-    <t>ĐH200304</t>
-  </si>
-  <si>
     <t>HE130585</t>
   </si>
   <si>
@@ -134,13 +131,10 @@
     <t>ĐH200305</t>
   </si>
   <si>
-    <t xml:space="preserve">        Nguyễn Ngọc    Hải</t>
-  </si>
-  <si>
-    <t>Nguyễn    Ngọc Hải</t>
-  </si>
-  <si>
-    <t>Nguyễn Ngọc              Hải</t>
+    <t>HE130 585</t>
+  </si>
+  <si>
+    <t>ĐH2003 04</t>
   </si>
 </sst>
 </file>
@@ -461,7 +455,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D13:D14"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,10 +516,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -560,10 +554,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
         <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -587,7 +581,7 @@
         <v>7.5</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
         <v>23</v>
@@ -598,10 +592,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
         <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -636,10 +630,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
         <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -663,10 +657,10 @@
         <v>9</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -674,10 +668,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
         <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -701,10 +695,10 @@
         <v>9</v>
       </c>
       <c r="K6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s">
         <v>34</v>
-      </c>
-      <c r="L6" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/eCert/Uploads/Nhac-cu-dan-toc.xlsx
+++ b/eCert/Uploads/Nhac-cu-dan-toc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>No</t>
   </si>
@@ -131,10 +131,13 @@
     <t>ĐH200305</t>
   </si>
   <si>
-    <t>HE130 585</t>
-  </si>
-  <si>
     <t>ĐH2003 04</t>
+  </si>
+  <si>
+    <t>Phạm Thanh Hà</t>
+  </si>
+  <si>
+    <t>HE130576</t>
   </si>
 </sst>
 </file>
@@ -455,7 +458,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,10 +519,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -630,7 +633,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -660,7 +663,7 @@
         <v>32</v>
       </c>
       <c r="L5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
